--- a/pacio-cs-BundledCognitiveStatus.xlsx
+++ b/pacio-cs-BundledCognitiveStatus.xlsx
@@ -156,7 +156,7 @@
     <t/>
   </si>
   <si>
-    <t>pacio-cs-BundledCognitiveStatus</t>
+    <t>Bundled Cognitive Status</t>
   </si>
   <si>
     <t>An bundled point in time package of cognitive status observations.</t>
@@ -166,7 +166,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where( (coding.code = %resource.code.coding.code) and (coding.system = %resource.code.coding.system)).empty()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -190,7 +190,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -222,6 +222,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>Observation.implicitRules</t>
   </si>
   <si>
@@ -344,6 +348,10 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Observation.modifierExtension</t>
   </si>
   <si>
@@ -467,7 +475,7 @@
     <t>Codes providing the status of an observation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -1008,10 +1016,6 @@
   </si>
   <si>
     <t>Observation.referenceRange.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1226,10 +1230,6 @@
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
   </si>
   <si>
     <t>containment by OBX-4?</t>
@@ -1455,47 +1455,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.92578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="65.69140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="61.72265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="245.77734375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="102.734375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1951,7 +1951,7 @@
         <v>45</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>45</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1997,16 +1997,16 @@
         <v>56</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2056,7 +2056,7 @@
         <v>45</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>43</v>
@@ -2068,7 +2068,7 @@
         <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>45</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2114,16 +2114,16 @@
         <v>45</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2149,13 +2149,13 @@
         <v>45</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>45</v>
@@ -2173,7 +2173,7 @@
         <v>45</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>43</v>
@@ -2185,7 +2185,7 @@
         <v>45</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>45</v>
@@ -2208,11 +2208,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2231,16 +2231,16 @@
         <v>45</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2290,7 +2290,7 @@
         <v>45</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>43</v>
@@ -2302,7 +2302,7 @@
         <v>45</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>45</v>
@@ -2314,7 +2314,7 @@
         <v>45</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>45</v>
@@ -2325,11 +2325,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2348,16 +2348,16 @@
         <v>45</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2407,7 +2407,7 @@
         <v>45</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>43</v>
@@ -2431,7 +2431,7 @@
         <v>45</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>45</v>
@@ -2442,11 +2442,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2465,16 +2465,16 @@
         <v>45</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2524,7 +2524,7 @@
         <v>45</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>43</v>
@@ -2536,7 +2536,7 @@
         <v>45</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>45</v>
@@ -2548,7 +2548,7 @@
         <v>45</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>45</v>
@@ -2559,11 +2559,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2582,19 +2582,19 @@
         <v>45</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>45</v>
@@ -2643,7 +2643,7 @@
         <v>45</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>43</v>
@@ -2655,7 +2655,7 @@
         <v>45</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>45</v>
@@ -2667,7 +2667,7 @@
         <v>45</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>45</v>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2701,17 +2701,17 @@
         <v>56</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>45</v>
@@ -2760,7 +2760,7 @@
         <v>45</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>43</v>
@@ -2772,22 +2772,22 @@
         <v>45</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>45</v>
@@ -2795,11 +2795,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2818,17 +2818,17 @@
         <v>56</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>45</v>
@@ -2877,7 +2877,7 @@
         <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>43</v>
@@ -2889,19 +2889,19 @@
         <v>45</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>45</v>
@@ -2912,11 +2912,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2935,16 +2935,16 @@
         <v>56</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2994,7 +2994,7 @@
         <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
@@ -3006,19 +3006,19 @@
         <v>45</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>45</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3052,19 +3052,19 @@
         <v>56</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>45</v>
@@ -3089,13 +3089,13 @@
         <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>45</v>
@@ -3113,7 +3113,7 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>55</v>
@@ -3125,22 +3125,22 @@
         <v>45</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>45</v>
@@ -3148,7 +3148,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3171,19 +3171,19 @@
         <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>45</v>
@@ -3208,13 +3208,13 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3232,7 +3232,7 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
@@ -3244,7 +3244,7 @@
         <v>45</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>45</v>
@@ -3256,10 +3256,10 @@
         <v>45</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3267,11 +3267,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3290,19 +3290,19 @@
         <v>56</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3327,13 +3327,13 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3351,7 +3351,7 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>55</v>
@@ -3363,30 +3363,30 @@
         <v>45</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3409,19 +3409,19 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3470,7 +3470,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3482,22 +3482,22 @@
         <v>45</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3528,16 +3528,16 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3587,7 +3587,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3599,7 +3599,7 @@
         <v>45</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>45</v>
@@ -3608,13 +3608,13 @@
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3622,11 +3622,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3645,19 +3645,19 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -3706,7 +3706,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3718,22 +3718,22 @@
         <v>45</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3741,11 +3741,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3764,19 +3764,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -3825,7 +3825,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3837,22 +3837,22 @@
         <v>45</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3860,7 +3860,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3883,16 +3883,16 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3942,7 +3942,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3954,7 +3954,7 @@
         <v>45</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>45</v>
@@ -3963,13 +3963,13 @@
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4000,17 +4000,17 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4059,7 +4059,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4071,22 +4071,22 @@
         <v>45</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4117,19 +4117,19 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4178,7 +4178,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4187,33 +4187,33 @@
         <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4236,19 +4236,19 @@
         <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4273,13 +4273,13 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
@@ -4297,7 +4297,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4306,10 +4306,10 @@
         <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>45</v>
@@ -4318,10 +4318,10 @@
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
@@ -4332,11 +4332,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4355,19 +4355,19 @@
         <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4392,13 +4392,13 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4416,7 +4416,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4428,30 +4428,30 @@
         <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4474,19 +4474,19 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4535,7 +4535,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4547,7 +4547,7 @@
         <v>45</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>45</v>
@@ -4556,10 +4556,10 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4570,7 +4570,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4593,16 +4593,16 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4628,13 +4628,13 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4652,7 +4652,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4664,30 +4664,30 @@
         <v>45</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4710,19 +4710,19 @@
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4747,13 +4747,13 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
@@ -4771,7 +4771,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4783,7 +4783,7 @@
         <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>45</v>
@@ -4792,10 +4792,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4829,16 +4829,16 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4888,7 +4888,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4900,30 +4900,30 @@
         <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4946,16 +4946,16 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5005,7 +5005,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5017,30 +5017,30 @@
         <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5063,19 +5063,19 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5124,7 +5124,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5136,7 +5136,7 @@
         <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>45</v>
@@ -5145,10 +5145,10 @@
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5182,13 +5182,13 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>318</v>
+        <v>57</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5239,7 +5239,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5263,7 +5263,7 @@
         <v>45</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5274,11 +5274,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5297,16 +5297,16 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5356,7 +5356,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5368,7 +5368,7 @@
         <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>45</v>
@@ -5380,7 +5380,7 @@
         <v>45</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5391,11 +5391,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5414,19 +5414,19 @@
         <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5475,7 +5475,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5487,7 +5487,7 @@
         <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>45</v>
@@ -5499,7 +5499,7 @@
         <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5510,7 +5510,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5533,13 +5533,13 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5590,7 +5590,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5599,10 +5599,10 @@
         <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>45</v>
@@ -5611,10 +5611,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5625,7 +5625,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5648,13 +5648,13 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5705,7 +5705,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5714,10 +5714,10 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>45</v>
@@ -5726,10 +5726,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5763,19 +5763,19 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -5800,13 +5800,13 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -5824,7 +5824,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5836,19 +5836,19 @@
         <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5882,19 +5882,19 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5919,13 +5919,13 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -5943,7 +5943,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5955,19 +5955,19 @@
         <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6001,17 +6001,17 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6060,7 +6060,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6072,7 +6072,7 @@
         <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>45</v>
@@ -6084,7 +6084,7 @@
         <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6095,7 +6095,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6118,13 +6118,13 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>318</v>
+        <v>57</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6175,7 +6175,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6187,7 +6187,7 @@
         <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>45</v>
@@ -6196,10 +6196,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6210,7 +6210,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6233,16 +6233,16 @@
         <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6292,7 +6292,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6304,7 +6304,7 @@
         <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>45</v>
@@ -6313,10 +6313,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6327,7 +6327,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6350,16 +6350,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6409,7 +6409,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6421,7 +6421,7 @@
         <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>45</v>
@@ -6430,10 +6430,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6444,7 +6444,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6467,19 +6467,19 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6528,7 +6528,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6540,7 +6540,7 @@
         <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>386</v>
+        <v>67</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>45</v>
@@ -6586,13 +6586,13 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>318</v>
+        <v>57</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6643,7 +6643,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6667,7 +6667,7 @@
         <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6682,7 +6682,7 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6701,16 +6701,16 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6760,7 +6760,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6772,7 +6772,7 @@
         <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>45</v>
@@ -6784,7 +6784,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6799,7 +6799,7 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6818,19 +6818,19 @@
         <v>56</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -6879,7 +6879,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6891,7 +6891,7 @@
         <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>45</v>
@@ -6903,7 +6903,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6937,7 +6937,7 @@
         <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>393</v>
@@ -6949,7 +6949,7 @@
         <v>395</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -6974,13 +6974,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -7010,7 +7010,7 @@
         <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>45</v>
@@ -7019,13 +7019,13 @@
         <v>396</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
@@ -7056,19 +7056,19 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>398</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>399</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7129,7 +7129,7 @@
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
@@ -7138,16 +7138,16 @@
         <v>400</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" hidden="true">
@@ -7175,7 +7175,7 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>402</v>
@@ -7187,7 +7187,7 @@
         <v>404</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7212,13 +7212,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7245,10 +7245,10 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>45</v>
@@ -7257,10 +7257,10 @@
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7275,7 +7275,7 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7294,19 +7294,19 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7331,13 +7331,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7367,25 +7367,25 @@
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -7422,10 +7422,10 @@
         <v>408</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7486,7 +7486,7 @@
         <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>45</v>
@@ -7495,10 +7495,10 @@
         <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>

--- a/pacio-cs-BundledCognitiveStatus.xlsx
+++ b/pacio-cs-BundledCognitiveStatus.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$84</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3130" uniqueCount="501">
   <si>
     <t>Path</t>
   </si>
@@ -403,7 +403,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/PACIO-functional-cognitive-status/StructureDefinition/obf-MedicationRequest|http://hl7.org/fhir/us/PACIO-functional-cognitive-status/StructureDefinition/obf-ServiceRequest|http://hl7.org/fhir/us/PACIO-functional-cognitive-status/StructureDefinition/obf-ProcedureRequest|http://hl7.org/fhir/us/PACIO-functional-cognitive-status/StructureDefinition/obf-ReferralRequest)
 </t>
   </si>
   <si>
@@ -432,14 +432,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/PACIO-functional-cognitive-status/StructureDefinition/obf-MedicationAdministration|http://hl7.org/fhir/us/PACIO-functional-cognitive-status/StructureDefinition/obf-MedicationStatement|http://hl7.org/fhir/us/PACIO-functional-cognitive-status/StructureDefinition/obf-Procedure)
 </t>
   </si>
   <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
+    <t>A larger event of which this particular Observation is a component or step. For example, an observation as part of a procedure.</t>
   </si>
   <si>
     <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
@@ -524,6 +521,229 @@
     <t>FiveWs.class</t>
   </si>
   <si>
+    <t>Observation.category.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.category.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.category.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:code}
+</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Fixed_survey</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>survey</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Observation.category.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>Observation.code</t>
   </si>
   <si>
@@ -570,17 +790,62 @@
     <t>116680003 |Is a|</t>
   </si>
   <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t>Fixed_11332-4</t>
+  </si>
+  <si>
+    <t>History of cognitive function narrative</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.system</t>
+  </si>
+  <si>
+    <t>http://loinc.org</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.code</t>
+  </si>
+  <si>
+    <t>11332-4</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.code.text</t>
+  </si>
+  <si>
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/PACIO-functional-cognitive-status/StructureDefinition/obf-Patient)
 </t>
   </si>
   <si>
-    <t>Who and/or what the observation is about</t>
-  </si>
-  <si>
-    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
+    <t>The subject of an observation</t>
+  </si>
+  <si>
+    <t>The subject of an observation.</t>
   </si>
   <si>
     <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
@@ -627,7 +892,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/PACIO-functional-cognitive-status/StructureDefinition/obf-Encounter)
 </t>
   </si>
   <si>
@@ -655,15 +920,15 @@
     <t>FiveWs.context</t>
   </si>
   <si>
-    <t>Observation.effective[x]</t>
+    <t>Observation.effectiveDateTime</t>
   </si>
   <si>
     <t xml:space="preserve">Occurrence
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiminginstant</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -676,6 +941,9 @@
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
+  </si>
+  <si>
+    <t>Observation.effective[x]</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -718,7 +986,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/PACIO-functional-cognitive-status/StructureDefinition/obf-Practitioner|http://hl7.org/fhir/us/PACIO-functional-cognitive-status/StructureDefinition/obf-Organization|http://hl7.org/fhir/us/PACIO-functional-cognitive-status/StructureDefinition/obf-Patient|http://hl7.org/fhir/us/PACIO-functional-cognitive-status/StructureDefinition/obf-RelatedPerson)
 </t>
   </si>
   <si>
@@ -743,23 +1011,22 @@
     <t>FiveWs.actor</t>
   </si>
   <si>
+    <t>Observation.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
+  </si>
+  <si>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+  </si>
+  <si>
     <t>Observation.value[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
-  </si>
-  <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
-  </si>
-  <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -850,7 +1117,7 @@
     <t>Observation.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation
+    <t xml:space="preserve">Annotation {http://hl7.org/fhir/us/PACIO-functional-cognitive-status/StructureDefinition/obf-Annotation}
 </t>
   </si>
   <si>
@@ -933,7 +1200,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/PACIO-functional-cognitive-status/StructureDefinition/obf-Specimen)
 </t>
   </si>
   <si>
@@ -961,7 +1228,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/PACIO-functional-cognitive-status/StructureDefinition/obf-Device)
 </t>
   </si>
   <si>
@@ -1018,25 +1285,7 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1179,7 +1428,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/PACIO-functional-cognitive-status/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>
@@ -1201,7 +1450,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/PACIO-functional-cognitive-status/StructureDefinition/obf-DocumentReference|http://hl7.org/fhir/us/PACIO-functional-cognitive-status/StructureDefinition/obf-Media|http://hl7.org/fhir/us/PACIO-functional-cognitive-status/StructureDefinition/obf-QuestionnaireResponse|http://hl7.org/fhir/us/PACIO-functional-cognitive-status/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>
@@ -1266,6 +1515,10 @@
     <t>Observation.component.value[x]</t>
   </si>
   <si>
+    <t>Quantity
+CodeableConceptstringRangeRatioSampledData {http://hl7.org/fhir/us/PACIO-functional-cognitive-status/StructureDefinition/obf-datatype-SampledData}timedateTimePeriod</t>
+  </si>
+  <si>
     <t>Actual component result</t>
   </si>
   <si>
@@ -1298,6 +1551,33 @@
   </si>
   <si>
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
+  </si>
+  <si>
+    <t>Observation.component.referenceRange.id</t>
+  </si>
+  <si>
+    <t>Observation.component.referenceRange.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.referenceRange.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.component.referenceRange.low</t>
+  </si>
+  <si>
+    <t>Observation.component.referenceRange.high</t>
+  </si>
+  <si>
+    <t>Observation.component.referenceRange.type</t>
+  </si>
+  <si>
+    <t>Observation.component.referenceRange.appliesTo</t>
+  </si>
+  <si>
+    <t>Observation.component.referenceRange.age</t>
+  </si>
+  <si>
+    <t>Observation.component.referenceRange.text</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO51"/>
+  <dimension ref="A1:AO84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1455,8 +1735,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.62890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.55859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1465,7 +1745,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="118.2734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1482,7 +1762,7 @@
     <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2941,10 +3221,10 @@
         <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3009,16 +3289,16 @@
         <v>67</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AK13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>45</v>
@@ -3029,7 +3309,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3055,16 +3335,16 @@
         <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>45</v>
@@ -3089,14 +3369,14 @@
         <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>146</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>45</v>
       </c>
@@ -3113,7 +3393,7 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>55</v>
@@ -3128,19 +3408,19 @@
         <v>67</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>45</v>
@@ -3148,7 +3428,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3156,10 +3436,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>45</v>
@@ -3171,19 +3451,19 @@
         <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>45</v>
@@ -3211,11 +3491,11 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>159</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
       </c>
@@ -3232,7 +3512,7 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
@@ -3256,10 +3536,10 @@
         <v>45</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3267,15 +3547,15 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>55</v>
@@ -3287,23 +3567,19 @@
         <v>45</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>45</v>
       </c>
@@ -3327,13 +3603,13 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3351,10 +3627,10 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>55</v>
@@ -3363,41 +3639,41 @@
         <v>45</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>45</v>
@@ -3406,23 +3682,21 @@
         <v>45</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>45</v>
       </c>
@@ -3458,46 +3732,46 @@
         <v>45</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3505,7 +3779,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3513,7 +3787,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>44</v>
@@ -3528,18 +3802,20 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
       </c>
@@ -3575,19 +3851,17 @@
         <v>45</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="AB18" s="2"/>
       <c r="AC18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3608,13 +3882,13 @@
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3622,15 +3896,17 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="C19" t="s" s="2">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>55</v>
@@ -3645,20 +3921,16 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>45</v>
       </c>
@@ -3706,34 +3978,34 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>201</v>
+        <v>45</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3741,11 +4013,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>205</v>
+        <v>45</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3761,23 +4033,19 @@
         <v>45</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>206</v>
+        <v>57</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>45</v>
       </c>
@@ -3825,7 +4093,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3837,22 +4105,22 @@
         <v>45</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>212</v>
+        <v>45</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>214</v>
+        <v>45</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3860,18 +4128,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>45</v>
@@ -3880,19 +4148,19 @@
         <v>45</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>216</v>
+        <v>101</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>217</v>
+        <v>102</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>104</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3930,31 +4198,31 @@
         <v>45</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>45</v>
@@ -3963,13 +4231,13 @@
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -3977,7 +4245,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4000,24 +4268,26 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>224</v>
+        <v>69</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="N22" t="s" s="2">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>45</v>
@@ -4059,13 +4329,13 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>45</v>
@@ -4074,19 +4344,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4094,7 +4364,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4117,20 +4387,18 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>233</v>
+        <v>57</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>45</v>
       </c>
@@ -4178,7 +4446,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4187,7 +4455,7 @@
         <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>67</v>
@@ -4196,24 +4464,24 @@
         <v>45</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>239</v>
+        <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>242</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4221,7 +4489,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>55</v>
@@ -4233,29 +4501,27 @@
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>45</v>
@@ -4273,13 +4539,13 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
@@ -4297,7 +4563,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4306,7 +4572,7 @@
         <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>67</v>
@@ -4318,10 +4584,10 @@
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>98</v>
+        <v>208</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
@@ -4332,18 +4598,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>45</v>
@@ -4352,22 +4618,20 @@
         <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4392,13 +4656,13 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>259</v>
+        <v>45</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>260</v>
+        <v>45</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4416,13 +4680,13 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>45</v>
@@ -4434,24 +4698,24 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>261</v>
+        <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>264</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4462,7 +4726,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>45</v>
@@ -4471,22 +4735,22 @@
         <v>45</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4535,13 +4799,13 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>45</v>
@@ -4556,10 +4820,10 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4570,7 +4834,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4590,21 +4854,23 @@
         <v>45</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4628,13 +4894,13 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>278</v>
+        <v>45</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4652,7 +4918,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4670,59 +4936,59 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>282</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4747,13 +5013,13 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>168</v>
+        <v>240</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
@@ -4771,10 +5037,10 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>55</v>
@@ -4786,27 +5052,27 @@
         <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>45</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4829,17 +5095,15 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>293</v>
+        <v>57</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>294</v>
+        <v>162</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -4888,7 +5152,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>292</v>
+        <v>164</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4900,41 +5164,41 @@
         <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>297</v>
+        <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>299</v>
+        <v>165</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>300</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>45</v>
@@ -4946,16 +5210,16 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>302</v>
+        <v>101</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>303</v>
+        <v>102</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>304</v>
+        <v>167</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>305</v>
+        <v>104</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4993,54 +5257,54 @@
         <v>45</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>301</v>
+        <v>171</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>307</v>
+        <v>45</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>308</v>
+        <v>165</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>309</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>310</v>
+        <v>251</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5048,7 +5312,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>44</v>
@@ -5060,22 +5324,22 @@
         <v>45</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>311</v>
+        <v>173</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>312</v>
+        <v>174</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>313</v>
+        <v>175</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>314</v>
+        <v>176</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>315</v>
+        <v>177</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5112,19 +5376,17 @@
         <v>45</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="AB31" s="2"/>
       <c r="AC31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>310</v>
+        <v>179</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5136,7 +5398,7 @@
         <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>316</v>
+        <v>67</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>45</v>
@@ -5145,10 +5407,10 @@
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>317</v>
+        <v>180</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>318</v>
+        <v>181</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
@@ -5159,15 +5421,17 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="C32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>55</v>
@@ -5179,16 +5443,16 @@
         <v>45</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>57</v>
+        <v>173</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>320</v>
+        <v>253</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>321</v>
+        <v>253</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5239,13 +5503,13 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>322</v>
+        <v>179</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
@@ -5263,7 +5527,7 @@
         <v>45</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>323</v>
+        <v>45</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5274,18 +5538,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -5297,17 +5561,15 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5356,19 +5618,19 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>326</v>
+        <v>164</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>45</v>
@@ -5380,7 +5642,7 @@
         <v>45</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>323</v>
+        <v>165</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5391,11 +5653,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>327</v>
+        <v>255</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>328</v>
+        <v>100</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5408,26 +5670,24 @@
         <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>329</v>
+        <v>102</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>330</v>
+        <v>167</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>110</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5463,19 +5723,19 @@
         <v>45</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>331</v>
+        <v>171</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5499,7 +5759,7 @@
         <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5510,7 +5770,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>332</v>
+        <v>256</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5518,7 +5778,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>55</v>
@@ -5530,25 +5790,29 @@
         <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>333</v>
+        <v>69</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>334</v>
+        <v>187</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>45</v>
+        <v>257</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>45</v>
@@ -5590,7 +5854,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>332</v>
+        <v>192</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5599,7 +5863,7 @@
         <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>67</v>
@@ -5611,10 +5875,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>337</v>
+        <v>193</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>338</v>
+        <v>194</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5625,7 +5889,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>339</v>
+        <v>258</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5645,18 +5909,20 @@
         <v>45</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>333</v>
+        <v>57</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>340</v>
+        <v>196</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5705,7 +5971,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>339</v>
+        <v>199</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5714,7 +5980,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>336</v>
+        <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>67</v>
@@ -5726,10 +5992,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>337</v>
+        <v>200</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>342</v>
+        <v>201</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5740,7 +6006,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>343</v>
+        <v>259</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5748,7 +6014,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>55</v>
@@ -5760,29 +6026,27 @@
         <v>45</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>344</v>
+        <v>203</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>347</v>
+        <v>205</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>45</v>
@@ -5800,13 +6064,13 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>348</v>
+        <v>45</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>349</v>
+        <v>45</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -5824,7 +6088,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>343</v>
+        <v>207</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5842,13 +6106,13 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>351</v>
+        <v>208</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>263</v>
+        <v>209</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5859,7 +6123,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>352</v>
+        <v>261</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5870,7 +6134,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -5879,22 +6143,20 @@
         <v>45</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>353</v>
+        <v>211</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>356</v>
+        <v>213</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5919,13 +6181,13 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>357</v>
+        <v>45</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>358</v>
+        <v>45</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -5943,13 +6205,13 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>352</v>
+        <v>214</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
@@ -5961,13 +6223,13 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>351</v>
+        <v>215</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -5978,7 +6240,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>359</v>
+        <v>262</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5998,20 +6260,22 @@
         <v>45</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>360</v>
+        <v>218</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>361</v>
+        <v>219</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>363</v>
+        <v>222</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6060,7 +6324,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>359</v>
+        <v>223</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6081,10 +6345,10 @@
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>364</v>
+        <v>225</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6095,7 +6359,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>365</v>
+        <v>263</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6115,19 +6379,23 @@
         <v>45</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>366</v>
+        <v>227</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6175,7 +6443,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>365</v>
+        <v>231</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6196,10 +6464,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>337</v>
+        <v>232</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>368</v>
+        <v>233</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6210,7 +6478,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>369</v>
+        <v>264</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6221,7 +6489,7 @@
         <v>55</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>45</v>
@@ -6233,18 +6501,20 @@
         <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>370</v>
+        <v>265</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>371</v>
+        <v>266</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>372</v>
+        <v>267</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
       </c>
@@ -6292,13 +6562,13 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>369</v>
+        <v>264</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>45</v>
@@ -6307,19 +6577,19 @@
         <v>67</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>374</v>
+        <v>271</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>45</v>
@@ -6327,7 +6597,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>376</v>
+        <v>274</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6338,7 +6608,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>45</v>
@@ -6350,16 +6620,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>377</v>
+        <v>275</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>378</v>
+        <v>276</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>379</v>
+        <v>277</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>380</v>
+        <v>278</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6409,7 +6679,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>376</v>
+        <v>274</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6430,13 +6700,13 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>374</v>
+        <v>245</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>381</v>
+        <v>279</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>45</v>
@@ -6444,18 +6714,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>382</v>
+        <v>280</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
@@ -6467,19 +6737,19 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>383</v>
+        <v>283</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>384</v>
+        <v>284</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>385</v>
+        <v>285</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>386</v>
+        <v>286</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6528,13 +6798,13 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>382</v>
+        <v>280</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>45</v>
@@ -6543,19 +6813,19 @@
         <v>67</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>387</v>
+        <v>288</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>388</v>
+        <v>289</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>45</v>
@@ -6563,11 +6833,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>389</v>
+        <v>291</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6583,19 +6853,23 @@
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>57</v>
+        <v>293</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6643,7 +6917,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6655,22 +6929,22 @@
         <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>45</v>
+        <v>299</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>45</v>
@@ -6678,18 +6952,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>390</v>
+        <v>303</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -6698,19 +6972,19 @@
         <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>101</v>
+        <v>304</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>102</v>
+        <v>305</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>104</v>
+        <v>307</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6760,19 +7034,19 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>45</v>
@@ -6781,13 +7055,13 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>45</v>
+        <v>308</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>45</v>
@@ -6795,15 +7069,15 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>391</v>
+        <v>311</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>328</v>
+        <v>45</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>44</v>
@@ -6812,25 +7086,23 @@
         <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>101</v>
+        <v>312</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>110</v>
+        <v>315</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -6879,7 +7151,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6891,22 +7163,22 @@
         <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>45</v>
+        <v>316</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>98</v>
+        <v>318</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>45</v>
@@ -6914,7 +7186,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>392</v>
+        <v>320</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6922,7 +7194,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>55</v>
@@ -6937,19 +7209,19 @@
         <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>393</v>
+        <v>321</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>395</v>
+        <v>323</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>167</v>
+        <v>324</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -6974,13 +7246,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -6998,16 +7270,16 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>392</v>
+        <v>325</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>55</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>67</v>
@@ -7016,24 +7288,24 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>396</v>
+        <v>327</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>173</v>
+        <v>328</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>174</v>
+        <v>329</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>45</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>331</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7053,22 +7325,22 @@
         <v>45</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>233</v>
+        <v>152</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>235</v>
+        <v>333</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>399</v>
+        <v>334</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>237</v>
+        <v>335</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7093,13 +7365,13 @@
         <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>45</v>
+        <v>336</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>45</v>
+        <v>338</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>45</v>
@@ -7117,7 +7389,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>397</v>
+        <v>331</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7126,7 +7398,7 @@
         <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>45</v>
+        <v>339</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>67</v>
@@ -7135,28 +7407,28 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>240</v>
+        <v>98</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>241</v>
+        <v>340</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>242</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>401</v>
+        <v>341</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7175,19 +7447,19 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>402</v>
+        <v>343</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>403</v>
+        <v>344</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>247</v>
+        <v>346</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7212,13 +7484,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>248</v>
+        <v>336</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>249</v>
+        <v>347</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>250</v>
+        <v>348</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7236,16 +7508,16 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>401</v>
+        <v>341</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>67</v>
@@ -7254,28 +7526,28 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>45</v>
+        <v>349</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>98</v>
+        <v>350</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>252</v>
+        <v>351</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>405</v>
+        <v>353</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7294,19 +7566,19 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>153</v>
+        <v>354</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>255</v>
+        <v>355</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>256</v>
+        <v>356</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>257</v>
+        <v>357</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>258</v>
+        <v>358</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7331,13 +7603,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>259</v>
+        <v>45</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>260</v>
+        <v>45</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7355,7 +7627,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>405</v>
+        <v>353</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7373,24 +7645,24 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>261</v>
+        <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>262</v>
+        <v>359</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>263</v>
+        <v>360</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>264</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7401,7 +7673,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
@@ -7413,20 +7685,18 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7450,13 +7720,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>45</v>
+        <v>366</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7474,13 +7744,13 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>45</v>
@@ -7492,23 +7762,3896 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>45</v>
+        <v>367</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>317</v>
+        <v>368</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>318</v>
+        <v>369</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO84" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO51">
+  <autoFilter ref="A1:AO84">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7518,7 +11661,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI50">
+  <conditionalFormatting sqref="A2:AI83">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
